--- a/dist/recording.xlsx
+++ b/dist/recording.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,6 +576,237 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-03-31 20:04:05</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>985.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-03-31 22:15:26</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>984.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>AAAAA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-03-31 22:20:55</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>985.9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>83479</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
